--- a/Code/Results/Cases/Case_2_249/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_249/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.1891098858178</v>
+        <v>0.5404584315820387</v>
       </c>
       <c r="C2">
-        <v>0.1140768008226303</v>
+        <v>0.2338570918008038</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1492886944210987</v>
+        <v>0.2658227537422171</v>
       </c>
       <c r="F2">
-        <v>0.929559888039492</v>
+        <v>1.796121191362907</v>
       </c>
       <c r="G2">
-        <v>0.2645189227718774</v>
+        <v>0.5927931663030961</v>
       </c>
       <c r="H2">
-        <v>0.2709203666710209</v>
+        <v>0.736074104013241</v>
       </c>
       <c r="I2">
-        <v>0.3053287801597691</v>
+        <v>0.7865246678824036</v>
       </c>
       <c r="J2">
-        <v>0.07157704887875127</v>
+        <v>0.04566136993263825</v>
       </c>
       <c r="K2">
-        <v>0.9383063842013541</v>
+        <v>0.2955353816041963</v>
       </c>
       <c r="L2">
-        <v>0.4589292591051048</v>
+        <v>0.5029601225827207</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.075477622533199</v>
+        <v>2.638485371817936</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.034883192347479</v>
+        <v>0.4934470909824711</v>
       </c>
       <c r="C3">
-        <v>0.1159224476024789</v>
+        <v>0.234980377440607</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1389547922523668</v>
+        <v>0.264449994233324</v>
       </c>
       <c r="F3">
-        <v>0.890547309606653</v>
+        <v>1.798864819960549</v>
       </c>
       <c r="G3">
-        <v>0.2682539679307183</v>
+        <v>0.5991942512098518</v>
       </c>
       <c r="H3">
-        <v>0.278323820786369</v>
+        <v>0.7425893750361894</v>
       </c>
       <c r="I3">
-        <v>0.3159483780333368</v>
+        <v>0.7951521567995421</v>
       </c>
       <c r="J3">
-        <v>0.06571596433372662</v>
+        <v>0.04367312395655532</v>
       </c>
       <c r="K3">
-        <v>0.8227948905553433</v>
+        <v>0.2582842804359302</v>
       </c>
       <c r="L3">
-        <v>0.4090292019944286</v>
+        <v>0.4911736614751163</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.09856692306397</v>
+        <v>2.66547099865609</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9401893470839013</v>
+        <v>0.4646041524358679</v>
       </c>
       <c r="C4">
-        <v>0.1171257443428466</v>
+        <v>0.2357164922915125</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1327507269334127</v>
+        <v>0.2637085531744425</v>
       </c>
       <c r="F4">
-        <v>0.8680999112366621</v>
+        <v>1.801453345606362</v>
       </c>
       <c r="G4">
-        <v>0.2712634990872544</v>
+        <v>0.6034952047385218</v>
       </c>
       <c r="H4">
-        <v>0.2833233292230872</v>
+        <v>0.7468777035591785</v>
       </c>
       <c r="I4">
-        <v>0.3231235645649679</v>
+        <v>0.8008285796039072</v>
       </c>
       <c r="J4">
-        <v>0.06211005776671641</v>
+        <v>0.04244396534503636</v>
       </c>
       <c r="K4">
-        <v>0.7517676781087488</v>
+        <v>0.2353318005448699</v>
       </c>
       <c r="L4">
-        <v>0.378653413770067</v>
+        <v>0.4841208151304386</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.11520426242096</v>
+        <v>2.683421191825957</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9015927761782621</v>
+        <v>0.4528569251340286</v>
       </c>
       <c r="C5">
-        <v>0.1176335882324047</v>
+        <v>0.2360281654443988</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1302564053164268</v>
+        <v>0.2634319984646503</v>
       </c>
       <c r="F5">
-        <v>0.8593154994566703</v>
+        <v>1.802735752769713</v>
       </c>
       <c r="G5">
-        <v>0.2726630684934506</v>
+        <v>0.6053410472298566</v>
       </c>
       <c r="H5">
-        <v>0.2854717845824126</v>
+        <v>0.7486976890046719</v>
       </c>
       <c r="I5">
-        <v>0.3262072886592335</v>
+        <v>0.8032371182609594</v>
       </c>
       <c r="J5">
-        <v>0.06063855347398928</v>
+        <v>0.04194099526712591</v>
       </c>
       <c r="K5">
-        <v>0.7227919066266679</v>
+        <v>0.2259589925445198</v>
       </c>
       <c r="L5">
-        <v>0.366336093451622</v>
+        <v>0.481293294268113</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.122581841823703</v>
+        <v>2.691083315074465</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8951831180497152</v>
+        <v>0.4509067268996318</v>
       </c>
       <c r="C6">
-        <v>0.1177189681283544</v>
+        <v>0.2360806260781452</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1298442271438951</v>
+        <v>0.263387624629047</v>
       </c>
       <c r="F6">
-        <v>0.8578783364438607</v>
+        <v>1.802962447383088</v>
       </c>
       <c r="G6">
-        <v>0.2729057270645612</v>
+        <v>0.6056531740641802</v>
       </c>
       <c r="H6">
-        <v>0.285835160064444</v>
+        <v>0.7490042740437985</v>
       </c>
       <c r="I6">
-        <v>0.3267288505310084</v>
+        <v>0.8036428137820959</v>
       </c>
       <c r="J6">
-        <v>0.06039407895373472</v>
+        <v>0.04185735273294355</v>
       </c>
       <c r="K6">
-        <v>0.7179784311176718</v>
+        <v>0.2244014877364862</v>
       </c>
       <c r="L6">
-        <v>0.3642943555969538</v>
+        <v>0.4808266076321956</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.123842387895124</v>
+        <v>2.692376580255484</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9396688638026376</v>
+        <v>0.4644456976656102</v>
       </c>
       <c r="C7">
-        <v>0.1171325226463829</v>
+        <v>0.2357206482109113</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1327169524623848</v>
+        <v>0.2637047197463431</v>
       </c>
       <c r="F7">
-        <v>0.8679799917808353</v>
+        <v>1.801469718860019</v>
       </c>
       <c r="G7">
-        <v>0.2712816820011881</v>
+        <v>0.6035197212269665</v>
       </c>
       <c r="H7">
-        <v>0.2833518579963297</v>
+        <v>0.7469019550709959</v>
       </c>
       <c r="I7">
-        <v>0.3231645120870397</v>
+        <v>0.8008606759021646</v>
       </c>
       <c r="J7">
-        <v>0.06209022125761265</v>
+        <v>0.04243719049367201</v>
       </c>
       <c r="K7">
-        <v>0.7513770360674243</v>
+        <v>0.2352054735881524</v>
       </c>
       <c r="L7">
-        <v>0.3784870573980612</v>
+        <v>0.4840824932567784</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.115301365925077</v>
+        <v>2.683523119757325</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.135926760243791</v>
+        <v>0.5242448462121558</v>
       </c>
       <c r="C8">
-        <v>0.1146985602290194</v>
+        <v>0.2342347853734239</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1456953338497868</v>
+        <v>0.2653284202461101</v>
       </c>
       <c r="F8">
-        <v>0.9157859956473402</v>
+        <v>1.796879738327</v>
       </c>
       <c r="G8">
-        <v>0.2656538587217057</v>
+        <v>0.5949233076132785</v>
       </c>
       <c r="H8">
-        <v>0.2733770655588899</v>
+        <v>0.7382608441163612</v>
       </c>
       <c r="I8">
-        <v>0.3088515521195028</v>
+        <v>0.7894207544706902</v>
       </c>
       <c r="J8">
-        <v>0.06955747231409148</v>
+        <v>0.04497757453510332</v>
       </c>
       <c r="K8">
-        <v>0.898495703703361</v>
+        <v>0.2827082273123551</v>
       </c>
       <c r="L8">
-        <v>0.44166597344595</v>
+        <v>0.4988581071498714</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.082915271939257</v>
+        <v>2.647503429053202</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.521233392249712</v>
+        <v>0.641652501972743</v>
       </c>
       <c r="C9">
-        <v>0.1104874423629028</v>
+        <v>0.2316879629434752</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1723400095386722</v>
+        <v>0.2693142003464324</v>
       </c>
       <c r="F9">
-        <v>1.022233926021514</v>
+        <v>1.795041268866356</v>
       </c>
       <c r="G9">
-        <v>0.26062702538254</v>
+        <v>0.5810085238595875</v>
       </c>
       <c r="H9">
-        <v>0.2575573081312257</v>
+        <v>0.7235976707901273</v>
       </c>
       <c r="I9">
-        <v>0.2862064655978536</v>
+        <v>0.7699941434043467</v>
       </c>
       <c r="J9">
-        <v>0.08415697312623394</v>
+        <v>0.04989193515774559</v>
       </c>
       <c r="K9">
-        <v>1.18647345110017</v>
+        <v>0.3751999940202779</v>
       </c>
       <c r="L9">
-        <v>0.5678941135488884</v>
+        <v>0.5292831937632201</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.039915558234185</v>
+        <v>2.587824384661872</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.805252555383703</v>
+        <v>0.7279603686359053</v>
       </c>
       <c r="C10">
-        <v>0.1077446997106257</v>
+        <v>0.2300387145516538</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1927556074628711</v>
+        <v>0.2727276217359318</v>
       </c>
       <c r="F10">
-        <v>1.109279884349576</v>
+        <v>1.798046397050697</v>
       </c>
       <c r="G10">
-        <v>0.2610727281792009</v>
+        <v>0.5725817943414384</v>
       </c>
       <c r="H10">
-        <v>0.248419134179926</v>
+        <v>0.714212243552808</v>
       </c>
       <c r="I10">
-        <v>0.2732050508400654</v>
+        <v>0.7575529944186243</v>
       </c>
       <c r="J10">
-        <v>0.09487680847884405</v>
+        <v>0.05346053797094896</v>
       </c>
       <c r="K10">
-        <v>1.398188442336476</v>
+        <v>0.4427235789582085</v>
       </c>
       <c r="L10">
-        <v>0.6624276947085406</v>
+        <v>0.5525091298193701</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.02226303652867</v>
+        <v>2.55065503118405</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.934822180056557</v>
+        <v>0.7672270711624662</v>
       </c>
       <c r="C11">
-        <v>0.106575236408446</v>
+        <v>0.2293362340898355</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2022517799956276</v>
+        <v>0.2743850592222898</v>
       </c>
       <c r="F11">
-        <v>1.151055442553456</v>
+        <v>1.80035725314761</v>
       </c>
       <c r="G11">
-        <v>0.2622855416316199</v>
+        <v>0.5691388836356168</v>
       </c>
       <c r="H11">
-        <v>0.2448492974987744</v>
+        <v>0.7102431209998343</v>
       </c>
       <c r="I11">
-        <v>0.2681570025278006</v>
+        <v>0.752290567675459</v>
       </c>
       <c r="J11">
-        <v>0.09975693838244837</v>
+        <v>0.05507469140405874</v>
       </c>
       <c r="K11">
-        <v>1.494642919194746</v>
+        <v>0.4733430656582698</v>
       </c>
       <c r="L11">
-        <v>0.7059105369584984</v>
+        <v>0.5632624270363067</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.017595653971014</v>
+        <v>2.535195181888227</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.983953338522099</v>
+        <v>0.7820962251465176</v>
       </c>
       <c r="C12">
-        <v>0.1061438235247394</v>
+        <v>0.2290770633159092</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2058800650464363</v>
+        <v>0.2750276627524784</v>
       </c>
       <c r="F12">
-        <v>1.167210504360284</v>
+        <v>1.801367809637938</v>
       </c>
       <c r="G12">
-        <v>0.262899923219841</v>
+        <v>0.5678913357240774</v>
       </c>
       <c r="H12">
-        <v>0.2435861923008673</v>
+        <v>0.7087832551662956</v>
       </c>
       <c r="I12">
-        <v>0.2663768753625853</v>
+        <v>0.7503549119724653</v>
       </c>
       <c r="J12">
-        <v>0.1016058376829037</v>
+        <v>0.05568458018851885</v>
       </c>
       <c r="K12">
-        <v>1.531197872233804</v>
+        <v>0.4849232811754405</v>
       </c>
       <c r="L12">
-        <v>0.7224528132351224</v>
+        <v>0.5673611623258097</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.016341693750178</v>
+        <v>2.52954924948736</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.97336891340791</v>
+        <v>0.7788939155636854</v>
       </c>
       <c r="C13">
-        <v>0.1062362242019574</v>
+        <v>0.2291325764317236</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2050971757932345</v>
+        <v>0.2748886021785353</v>
       </c>
       <c r="F13">
-        <v>1.163715927602823</v>
+        <v>1.801144146195355</v>
       </c>
       <c r="G13">
-        <v>0.2627605428208568</v>
+        <v>0.5681575166691033</v>
       </c>
       <c r="H13">
-        <v>0.243854208047054</v>
+        <v>0.7090957446459427</v>
       </c>
       <c r="I13">
-        <v>0.2667542970767585</v>
+        <v>0.7507692499267655</v>
       </c>
       <c r="J13">
-        <v>0.1012075978202702</v>
+        <v>0.05555329051784952</v>
       </c>
       <c r="K13">
-        <v>1.523323636257203</v>
+        <v>0.4824299407169121</v>
       </c>
       <c r="L13">
-        <v>0.7188866234590847</v>
+        <v>0.5664772438001933</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.016588423998584</v>
+        <v>2.530755933493623</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.938862830159024</v>
+        <v>0.7684503769496018</v>
       </c>
       <c r="C14">
-        <v>0.106539513466533</v>
+        <v>0.2293147749534512</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2025496207620634</v>
+        <v>0.2744376270881759</v>
       </c>
       <c r="F14">
-        <v>1.152377670995477</v>
+        <v>1.800437678249295</v>
       </c>
       <c r="G14">
-        <v>0.2623329197772719</v>
+        <v>0.5690351202841555</v>
       </c>
       <c r="H14">
-        <v>0.2447435776541127</v>
+        <v>0.7101221522796379</v>
       </c>
       <c r="I14">
-        <v>0.2680078749232706</v>
+        <v>0.7521301754870997</v>
       </c>
       <c r="J14">
-        <v>0.09990902814756453</v>
+        <v>0.05512489467150772</v>
       </c>
       <c r="K14">
-        <v>1.497649667365437</v>
+        <v>0.4742960760956976</v>
       </c>
       <c r="L14">
-        <v>0.707269907509982</v>
+        <v>0.5635990991467139</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.017482021352023</v>
+        <v>2.534726511110264</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.917735850095738</v>
+        <v>0.7620533404433445</v>
       </c>
       <c r="C15">
-        <v>0.1067267821834967</v>
+        <v>0.2294272672425457</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2009934435352108</v>
+        <v>0.2741633386737874</v>
       </c>
       <c r="F15">
-        <v>1.145477049058783</v>
+        <v>1.800022583490929</v>
       </c>
       <c r="G15">
-        <v>0.2620914919783957</v>
+        <v>0.5695799995418938</v>
       </c>
       <c r="H15">
-        <v>0.2453000269554479</v>
+        <v>0.7107564755483224</v>
       </c>
       <c r="I15">
-        <v>0.2687930584144524</v>
+        <v>0.752971219432407</v>
       </c>
       <c r="J15">
-        <v>0.09911374558812014</v>
+        <v>0.05486231235155969</v>
       </c>
       <c r="K15">
-        <v>1.481927770737087</v>
+        <v>0.4693119108024746</v>
       </c>
       <c r="L15">
-        <v>0.7001644929449782</v>
+        <v>0.5618396201183771</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.018097163594803</v>
+        <v>2.53718574312623</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.796793373338659</v>
+        <v>0.7253942098307675</v>
       </c>
       <c r="C16">
-        <v>0.1078227168725263</v>
+        <v>0.2300855823399708</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1921394041705184</v>
+        <v>0.2726214032739165</v>
       </c>
       <c r="F16">
-        <v>1.106595461752121</v>
+        <v>1.797914349124071</v>
       </c>
       <c r="G16">
-        <v>0.261014623343506</v>
+        <v>0.5728146587771974</v>
       </c>
       <c r="H16">
-        <v>0.2486646067514613</v>
+        <v>0.7144776758801967</v>
       </c>
       <c r="I16">
-        <v>0.2735529649075517</v>
+        <v>0.7579048978978307</v>
       </c>
       <c r="J16">
-        <v>0.09455798528567527</v>
+        <v>0.05335486111802368</v>
       </c>
       <c r="K16">
-        <v>1.391888572035157</v>
+        <v>0.4407205030412626</v>
       </c>
       <c r="L16">
-        <v>0.6595962487263876</v>
+        <v>0.5518101282824119</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.022638245605719</v>
+        <v>2.551694524836165</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.722702304817631</v>
+        <v>0.7029055520346219</v>
       </c>
       <c r="C17">
-        <v>0.1085152035526846</v>
+        <v>0.2305016539628575</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1867628200248674</v>
+        <v>0.27170222266313</v>
       </c>
       <c r="F17">
-        <v>1.08331619459527</v>
+        <v>1.796862582296754</v>
       </c>
       <c r="G17">
-        <v>0.2606195395576805</v>
+        <v>0.5748990650962824</v>
       </c>
       <c r="H17">
-        <v>0.2508820200351281</v>
+        <v>0.7168374142684542</v>
       </c>
       <c r="I17">
-        <v>0.2766996780851336</v>
+        <v>0.7610332650064997</v>
       </c>
       <c r="J17">
-        <v>0.09176436420906242</v>
+        <v>0.05242770535426899</v>
       </c>
       <c r="K17">
-        <v>1.336695581249671</v>
+        <v>0.4231551561044569</v>
       </c>
       <c r="L17">
-        <v>0.6348367462965143</v>
+        <v>0.5457052242169169</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.026306076381772</v>
+        <v>2.560966275531086</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.680120873459032</v>
+        <v>0.6899711835039</v>
       </c>
       <c r="C18">
-        <v>0.1089208544706217</v>
+        <v>0.23074546531927</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1836898830204134</v>
+        <v>0.2711833897787201</v>
       </c>
       <c r="F18">
-        <v>1.070130154716466</v>
+        <v>1.796346483575192</v>
       </c>
       <c r="G18">
-        <v>0.2604867447922246</v>
+        <v>0.5761347079369017</v>
       </c>
       <c r="H18">
-        <v>0.2522124130812031</v>
+        <v>0.7182229463798109</v>
       </c>
       <c r="I18">
-        <v>0.2785906954828405</v>
+        <v>0.762869996916983</v>
       </c>
       <c r="J18">
-        <v>0.09015786420908967</v>
+        <v>0.05189356367232278</v>
       </c>
       <c r="K18">
-        <v>1.30496303480345</v>
+        <v>0.4130429149853114</v>
       </c>
       <c r="L18">
-        <v>0.6206403561256622</v>
+        <v>0.5422115300446961</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.028730348691042</v>
+        <v>2.566435494063228</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.665708953354425</v>
+        <v>0.6855919467358831</v>
       </c>
       <c r="C19">
-        <v>0.1090594578358477</v>
+        <v>0.2308287889836471</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1826527280451131</v>
+        <v>0.271009417045228</v>
       </c>
       <c r="F19">
-        <v>1.065699892536216</v>
+        <v>1.796187008516881</v>
       </c>
       <c r="G19">
-        <v>0.2604577128829959</v>
+        <v>0.5765593849042077</v>
       </c>
       <c r="H19">
-        <v>0.2526721805704923</v>
+        <v>0.7186969207634561</v>
       </c>
       <c r="I19">
-        <v>0.2792446892988991</v>
+        <v>0.7634983022721542</v>
       </c>
       <c r="J19">
-        <v>0.08961397418032391</v>
+        <v>0.0517125646170129</v>
       </c>
       <c r="K19">
-        <v>1.294220909638341</v>
+        <v>0.4096175399323556</v>
       </c>
       <c r="L19">
-        <v>0.6158411485921818</v>
+        <v>0.5410316716993009</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.029604321838903</v>
+        <v>2.568310694388288</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.730585836603581</v>
+        <v>0.7052994621531354</v>
       </c>
       <c r="C20">
-        <v>0.108440725038129</v>
+        <v>0.2304568970958272</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1873331293330551</v>
+        <v>0.2717990515910031</v>
       </c>
       <c r="F20">
-        <v>1.085773084772796</v>
+        <v>1.796965350739669</v>
       </c>
       <c r="G20">
-        <v>0.2606517523693981</v>
+        <v>0.5746733728152762</v>
       </c>
       <c r="H20">
-        <v>0.2506402505813909</v>
+        <v>0.7165832902002407</v>
       </c>
       <c r="I20">
-        <v>0.2763562618432402</v>
+        <v>0.760696376468033</v>
       </c>
       <c r="J20">
-        <v>0.0920617144667375</v>
+        <v>0.05252649253451835</v>
       </c>
       <c r="K20">
-        <v>1.342569560636065</v>
+        <v>0.4250259662146334</v>
       </c>
       <c r="L20">
-        <v>0.6374677675209455</v>
+        <v>0.5463532734734002</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.025882855263475</v>
+        <v>2.559965169410134</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.94899620465921</v>
+        <v>0.7715179132321168</v>
       </c>
       <c r="C21">
-        <v>0.106450118089807</v>
+        <v>0.2292610733113136</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2032970045968909</v>
+        <v>0.2745696838275862</v>
       </c>
       <c r="F21">
-        <v>1.155698699611833</v>
+        <v>1.800641509840233</v>
       </c>
       <c r="G21">
-        <v>0.2624542316294907</v>
+        <v>0.5687758208844969</v>
       </c>
       <c r="H21">
-        <v>0.2444799051444519</v>
+        <v>0.7098195005554473</v>
       </c>
       <c r="I21">
-        <v>0.2676360441404455</v>
+        <v>0.7517288886301721</v>
       </c>
       <c r="J21">
-        <v>0.100290421973888</v>
+        <v>0.05525076195937118</v>
       </c>
       <c r="K21">
-        <v>1.505189852398559</v>
+        <v>0.4766855945414363</v>
       </c>
       <c r="L21">
-        <v>0.7106798875311711</v>
+        <v>0.564443757867366</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.017205367249844</v>
+        <v>2.533554600457393</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.092131165476189</v>
+        <v>0.8147933286037983</v>
       </c>
       <c r="C22">
-        <v>0.105215903080385</v>
+        <v>0.228519409610616</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2139196689517107</v>
+        <v>0.276467658860156</v>
       </c>
       <c r="F22">
-        <v>1.203366428502562</v>
+        <v>1.803833695753042</v>
       </c>
       <c r="G22">
-        <v>0.2645414026821769</v>
+        <v>0.5652490789504725</v>
       </c>
       <c r="H22">
-        <v>0.2409730364170741</v>
+        <v>0.7056504953312128</v>
       </c>
       <c r="I22">
-        <v>0.262706609387088</v>
+        <v>0.7462010071032488</v>
       </c>
       <c r="J22">
-        <v>0.105673797095335</v>
+        <v>0.05702331120844661</v>
       </c>
       <c r="K22">
-        <v>1.61164959274268</v>
+        <v>0.5103620171088039</v>
       </c>
       <c r="L22">
-        <v>0.7589765546346712</v>
+        <v>0.576422396373971</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.014542258777951</v>
+        <v>2.517508374364766</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.015696995228154</v>
+        <v>0.7916969491094505</v>
       </c>
       <c r="C23">
-        <v>0.1058684529725511</v>
+        <v>0.2289116093416581</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2082320539627247</v>
+        <v>0.2754467213474072</v>
       </c>
       <c r="F23">
-        <v>1.177737505683297</v>
+        <v>1.802057794739298</v>
       </c>
       <c r="G23">
-        <v>0.2633408349761481</v>
+        <v>0.5671013674927252</v>
       </c>
       <c r="H23">
-        <v>0.2427957213708609</v>
+        <v>0.7078525693966355</v>
       </c>
       <c r="I23">
-        <v>0.2652647318328718</v>
+        <v>0.7491208798883413</v>
       </c>
       <c r="J23">
-        <v>0.1027999593415672</v>
+        <v>0.05607800277320507</v>
       </c>
       <c r="K23">
-        <v>1.55481059526096</v>
+        <v>0.4923963959838318</v>
       </c>
       <c r="L23">
-        <v>0.733156130622973</v>
+        <v>0.5700150448643342</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.01567800740807</v>
+        <v>2.525961391244948</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.727021647660735</v>
+        <v>0.7042171919457019</v>
       </c>
       <c r="C24">
-        <v>0.1084743733312088</v>
+        <v>0.2304771173248028</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1870752361824231</v>
+        <v>0.2717552452733116</v>
       </c>
       <c r="F24">
-        <v>1.084661711167044</v>
+        <v>1.796918613203758</v>
       </c>
       <c r="G24">
-        <v>0.2606368958357805</v>
+        <v>0.5747752921453895</v>
       </c>
       <c r="H24">
-        <v>0.2507493817759254</v>
+        <v>0.7166980897076414</v>
       </c>
       <c r="I24">
-        <v>0.2765112656478337</v>
+        <v>0.7608485648117522</v>
       </c>
       <c r="J24">
-        <v>0.09192728372078562</v>
+        <v>0.05248183429780795</v>
       </c>
       <c r="K24">
-        <v>1.339913939465788</v>
+        <v>0.4241802155493133</v>
       </c>
       <c r="L24">
-        <v>0.6362781644632491</v>
+        <v>0.5460602402444721</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.026073212787011</v>
+        <v>2.5604173372476</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.416884237217289</v>
+        <v>0.6098793810860457</v>
       </c>
       <c r="C25">
-        <v>0.111565649194926</v>
+        <v>0.2323378486123531</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1649929018791632</v>
+        <v>0.2681504923423397</v>
       </c>
       <c r="F25">
-        <v>0.9919676768297876</v>
+        <v>1.794772920484803</v>
       </c>
       <c r="G25">
-        <v>0.2612960563481224</v>
+        <v>0.5844575410406492</v>
       </c>
       <c r="H25">
-        <v>0.2614161078163733</v>
+        <v>0.7273205125535398</v>
       </c>
       <c r="I25">
-        <v>0.2917190148938431</v>
+        <v>0.7749277967386128</v>
       </c>
       <c r="J25">
-        <v>0.08021008086687687</v>
+        <v>0.04856977431451526</v>
       </c>
       <c r="K25">
-        <v>1.108578516832068</v>
+        <v>0.3502521017344407</v>
       </c>
       <c r="L25">
-        <v>0.5334591513699252</v>
+        <v>0.520898333285345</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.049208927208298</v>
+        <v>2.602796485132856</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_249/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_249/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5404584315820387</v>
+        <v>1.189109885817771</v>
       </c>
       <c r="C2">
-        <v>0.2338570918008038</v>
+        <v>0.1140768008221045</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2658227537422171</v>
+        <v>0.1492886944211236</v>
       </c>
       <c r="F2">
-        <v>1.796121191362907</v>
+        <v>0.929559888039492</v>
       </c>
       <c r="G2">
-        <v>0.5927931663030961</v>
+        <v>0.2645189227718916</v>
       </c>
       <c r="H2">
-        <v>0.736074104013241</v>
+        <v>0.2709203666710067</v>
       </c>
       <c r="I2">
-        <v>0.7865246678824036</v>
+        <v>0.3053287801597655</v>
       </c>
       <c r="J2">
-        <v>0.04566136993263825</v>
+        <v>0.07157704887866601</v>
       </c>
       <c r="K2">
-        <v>0.2955353816041963</v>
+        <v>0.9383063842013541</v>
       </c>
       <c r="L2">
-        <v>0.5029601225827207</v>
+        <v>0.4589292591051048</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.638485371817936</v>
+        <v>1.075477622533171</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4934470909824711</v>
+        <v>1.034883192347337</v>
       </c>
       <c r="C3">
-        <v>0.234980377440607</v>
+        <v>0.1159224476024541</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.264449994233324</v>
+        <v>0.1389547922524024</v>
       </c>
       <c r="F3">
-        <v>1.798864819960549</v>
+        <v>0.8905473096066601</v>
       </c>
       <c r="G3">
-        <v>0.5991942512098518</v>
+        <v>0.2682539679307041</v>
       </c>
       <c r="H3">
-        <v>0.7425893750361894</v>
+        <v>0.278323820786369</v>
       </c>
       <c r="I3">
-        <v>0.7951521567995421</v>
+        <v>0.3159483780333154</v>
       </c>
       <c r="J3">
-        <v>0.04367312395655532</v>
+        <v>0.06571596433377636</v>
       </c>
       <c r="K3">
-        <v>0.2582842804359302</v>
+        <v>0.8227948905553149</v>
       </c>
       <c r="L3">
-        <v>0.4911736614751163</v>
+        <v>0.4090292019944997</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.66547099865609</v>
+        <v>1.098566923063984</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4646041524358679</v>
+        <v>0.9401893470837308</v>
       </c>
       <c r="C4">
-        <v>0.2357164922915125</v>
+        <v>0.1171257443428928</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2637085531744425</v>
+        <v>0.1327507269333772</v>
       </c>
       <c r="F4">
-        <v>1.801453345606362</v>
+        <v>0.8680999112366763</v>
       </c>
       <c r="G4">
-        <v>0.6034952047385218</v>
+        <v>0.2712634990872758</v>
       </c>
       <c r="H4">
-        <v>0.7468777035591785</v>
+        <v>0.2833233292229735</v>
       </c>
       <c r="I4">
-        <v>0.8008285796039072</v>
+        <v>0.3231235645649591</v>
       </c>
       <c r="J4">
-        <v>0.04244396534503636</v>
+        <v>0.06211005776660983</v>
       </c>
       <c r="K4">
-        <v>0.2353318005448699</v>
+        <v>0.751767678108834</v>
       </c>
       <c r="L4">
-        <v>0.4841208151304386</v>
+        <v>0.3786534137700812</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.683421191825957</v>
+        <v>1.115204262420988</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4528569251340286</v>
+        <v>0.9015927761783757</v>
       </c>
       <c r="C5">
-        <v>0.2360281654443988</v>
+        <v>0.1176335882322235</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2634319984646503</v>
+        <v>0.1302564053164588</v>
       </c>
       <c r="F5">
-        <v>1.802735752769713</v>
+        <v>0.8593154994566703</v>
       </c>
       <c r="G5">
-        <v>0.6053410472298566</v>
+        <v>0.2726630684935145</v>
       </c>
       <c r="H5">
-        <v>0.7486976890046719</v>
+        <v>0.2854717845825476</v>
       </c>
       <c r="I5">
-        <v>0.8032371182609594</v>
+        <v>0.3262072886592353</v>
       </c>
       <c r="J5">
-        <v>0.04194099526712591</v>
+        <v>0.06063855347412073</v>
       </c>
       <c r="K5">
-        <v>0.2259589925445198</v>
+        <v>0.72279190662654</v>
       </c>
       <c r="L5">
-        <v>0.481293294268113</v>
+        <v>0.3663360934515651</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.691083315074465</v>
+        <v>1.122581841823703</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4509067268996318</v>
+        <v>0.8951831180497152</v>
       </c>
       <c r="C6">
-        <v>0.2360806260781452</v>
+        <v>0.1177189681281128</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.263387624629047</v>
+        <v>0.1298442271439129</v>
       </c>
       <c r="F6">
-        <v>1.802962447383088</v>
+        <v>0.8578783364438465</v>
       </c>
       <c r="G6">
-        <v>0.6056531740641802</v>
+        <v>0.272905727064547</v>
       </c>
       <c r="H6">
-        <v>0.7490042740437985</v>
+        <v>0.2858351600643232</v>
       </c>
       <c r="I6">
-        <v>0.8036428137820959</v>
+        <v>0.326728850531012</v>
       </c>
       <c r="J6">
-        <v>0.04185735273294355</v>
+        <v>0.06039407895373827</v>
       </c>
       <c r="K6">
-        <v>0.2244014877364862</v>
+        <v>0.7179784311177997</v>
       </c>
       <c r="L6">
-        <v>0.4808266076321956</v>
+        <v>0.3642943555969538</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.692376580255484</v>
+        <v>1.123842387895095</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4644456976656102</v>
+        <v>0.9396688638025807</v>
       </c>
       <c r="C7">
-        <v>0.2357206482109113</v>
+        <v>0.1171325226464397</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2637047197463431</v>
+        <v>0.1327169524624026</v>
       </c>
       <c r="F7">
-        <v>1.801469718860019</v>
+        <v>0.8679799917808424</v>
       </c>
       <c r="G7">
-        <v>0.6035197212269665</v>
+        <v>0.2712816820012094</v>
       </c>
       <c r="H7">
-        <v>0.7469019550709959</v>
+        <v>0.2833518579963297</v>
       </c>
       <c r="I7">
-        <v>0.8008606759021646</v>
+        <v>0.3231645120870432</v>
       </c>
       <c r="J7">
-        <v>0.04243719049367201</v>
+        <v>0.06209022125758423</v>
       </c>
       <c r="K7">
-        <v>0.2352054735881524</v>
+        <v>0.7513770360675522</v>
       </c>
       <c r="L7">
-        <v>0.4840824932567784</v>
+        <v>0.3784870573979902</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.683523119757325</v>
+        <v>1.115301365925092</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5242448462121558</v>
+        <v>1.135926760243763</v>
       </c>
       <c r="C8">
-        <v>0.2342347853734239</v>
+        <v>0.1146985602290584</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2653284202461101</v>
+        <v>0.1456953338498259</v>
       </c>
       <c r="F8">
-        <v>1.796879738327</v>
+        <v>0.9157859956473544</v>
       </c>
       <c r="G8">
-        <v>0.5949233076132785</v>
+        <v>0.2656538587217057</v>
       </c>
       <c r="H8">
-        <v>0.7382608441163612</v>
+        <v>0.2733770655588899</v>
       </c>
       <c r="I8">
-        <v>0.7894207544706902</v>
+        <v>0.3088515521194992</v>
       </c>
       <c r="J8">
-        <v>0.04497757453510332</v>
+        <v>0.06955747231406306</v>
       </c>
       <c r="K8">
-        <v>0.2827082273123551</v>
+        <v>0.8984957037034462</v>
       </c>
       <c r="L8">
-        <v>0.4988581071498714</v>
+        <v>0.4416659734459216</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.647503429053202</v>
+        <v>1.082915271939257</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.641652501972743</v>
+        <v>1.521233392249599</v>
       </c>
       <c r="C9">
-        <v>0.2316879629434752</v>
+        <v>0.1104874423631479</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2693142003464324</v>
+        <v>0.1723400095386758</v>
       </c>
       <c r="F9">
-        <v>1.795041268866356</v>
+        <v>1.022233926021514</v>
       </c>
       <c r="G9">
-        <v>0.5810085238595875</v>
+        <v>0.26062702538254</v>
       </c>
       <c r="H9">
-        <v>0.7235976707901273</v>
+        <v>0.2575573081312328</v>
       </c>
       <c r="I9">
-        <v>0.7699941434043467</v>
+        <v>0.2862064655978678</v>
       </c>
       <c r="J9">
-        <v>0.04989193515774559</v>
+        <v>0.08415697312609893</v>
       </c>
       <c r="K9">
-        <v>0.3751999940202779</v>
+        <v>1.186473451100056</v>
       </c>
       <c r="L9">
-        <v>0.5292831937632201</v>
+        <v>0.5678941135489168</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.587824384661872</v>
+        <v>1.039915558234156</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7279603686359053</v>
+        <v>1.805252555383589</v>
       </c>
       <c r="C10">
-        <v>0.2300387145516538</v>
+        <v>0.1077446997108069</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2727276217359318</v>
+        <v>0.1927556074628853</v>
       </c>
       <c r="F10">
-        <v>1.798046397050697</v>
+        <v>1.109279884349561</v>
       </c>
       <c r="G10">
-        <v>0.5725817943414384</v>
+        <v>0.261072728179137</v>
       </c>
       <c r="H10">
-        <v>0.714212243552808</v>
+        <v>0.248419134179926</v>
       </c>
       <c r="I10">
-        <v>0.7575529944186243</v>
+        <v>0.2732050508400832</v>
       </c>
       <c r="J10">
-        <v>0.05346053797094896</v>
+        <v>0.09487680847893643</v>
       </c>
       <c r="K10">
-        <v>0.4427235789582085</v>
+        <v>1.398188442336505</v>
       </c>
       <c r="L10">
-        <v>0.5525091298193701</v>
+        <v>0.6624276947085264</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.55065503118405</v>
+        <v>1.02226303652867</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7672270711624662</v>
+        <v>1.934822180056415</v>
       </c>
       <c r="C11">
-        <v>0.2293362340898355</v>
+        <v>0.1065752364082009</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2743850592222898</v>
+        <v>0.2022517799956205</v>
       </c>
       <c r="F11">
-        <v>1.80035725314761</v>
+        <v>1.151055442553471</v>
       </c>
       <c r="G11">
-        <v>0.5691388836356168</v>
+        <v>0.2622855416316483</v>
       </c>
       <c r="H11">
-        <v>0.7102431209998343</v>
+        <v>0.2448492974987673</v>
       </c>
       <c r="I11">
-        <v>0.752290567675459</v>
+        <v>0.2681570025278006</v>
       </c>
       <c r="J11">
-        <v>0.05507469140405874</v>
+        <v>0.09975693838246968</v>
       </c>
       <c r="K11">
-        <v>0.4733430656582698</v>
+        <v>1.494642919194831</v>
       </c>
       <c r="L11">
-        <v>0.5632624270363067</v>
+        <v>0.7059105369585552</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.535195181888227</v>
+        <v>1.017595653971028</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7820962251465176</v>
+        <v>1.983953338522269</v>
       </c>
       <c r="C12">
-        <v>0.2290770633159092</v>
+        <v>0.1061438235250378</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2750276627524784</v>
+        <v>0.2058800650464363</v>
       </c>
       <c r="F12">
-        <v>1.801367809637938</v>
+        <v>1.16721050436027</v>
       </c>
       <c r="G12">
-        <v>0.5678913357240774</v>
+        <v>0.2628999232198197</v>
       </c>
       <c r="H12">
-        <v>0.7087832551662956</v>
+        <v>0.243586192300846</v>
       </c>
       <c r="I12">
-        <v>0.7503549119724653</v>
+        <v>0.2663768753625781</v>
       </c>
       <c r="J12">
-        <v>0.05568458018851885</v>
+        <v>0.1016058376830173</v>
       </c>
       <c r="K12">
-        <v>0.4849232811754405</v>
+        <v>1.531197872233861</v>
       </c>
       <c r="L12">
-        <v>0.5673611623258097</v>
+        <v>0.722452813235293</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.52954924948736</v>
+        <v>1.016341693750206</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7788939155636854</v>
+        <v>1.973368913407825</v>
       </c>
       <c r="C13">
-        <v>0.2291325764317236</v>
+        <v>0.1062362242024264</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2748886021785353</v>
+        <v>0.2050971757932629</v>
       </c>
       <c r="F13">
-        <v>1.801144146195355</v>
+        <v>1.163715927602809</v>
       </c>
       <c r="G13">
-        <v>0.5681575166691033</v>
+        <v>0.2627605428209137</v>
       </c>
       <c r="H13">
-        <v>0.7090957446459427</v>
+        <v>0.2438542080470398</v>
       </c>
       <c r="I13">
-        <v>0.7507692499267655</v>
+        <v>0.266754297076762</v>
       </c>
       <c r="J13">
-        <v>0.05555329051784952</v>
+        <v>0.1012075978202347</v>
       </c>
       <c r="K13">
-        <v>0.4824299407169121</v>
+        <v>1.523323636257231</v>
       </c>
       <c r="L13">
-        <v>0.5664772438001933</v>
+        <v>0.718886623458971</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.530755933493623</v>
+        <v>1.016588423998542</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7684503769496018</v>
+        <v>1.938862830159024</v>
       </c>
       <c r="C14">
-        <v>0.2293147749534512</v>
+        <v>0.1065395134665259</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2744376270881759</v>
+        <v>0.2025496207620776</v>
       </c>
       <c r="F14">
-        <v>1.800437678249295</v>
+        <v>1.152377670995492</v>
       </c>
       <c r="G14">
-        <v>0.5690351202841555</v>
+        <v>0.2623329197772222</v>
       </c>
       <c r="H14">
-        <v>0.7101221522796379</v>
+        <v>0.244743577653999</v>
       </c>
       <c r="I14">
-        <v>0.7521301754870997</v>
+        <v>0.2680078749232706</v>
       </c>
       <c r="J14">
-        <v>0.05512489467150772</v>
+        <v>0.09990902814760716</v>
       </c>
       <c r="K14">
-        <v>0.4742960760956976</v>
+        <v>1.497649667365494</v>
       </c>
       <c r="L14">
-        <v>0.5635990991467139</v>
+        <v>0.707269907509982</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.534726511110264</v>
+        <v>1.017482021352066</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7620533404433445</v>
+        <v>1.917735850095966</v>
       </c>
       <c r="C15">
-        <v>0.2294272672425457</v>
+        <v>0.1067267821840368</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2741633386737874</v>
+        <v>0.2009934435352463</v>
       </c>
       <c r="F15">
-        <v>1.800022583490929</v>
+        <v>1.145477049058798</v>
       </c>
       <c r="G15">
-        <v>0.5695799995418938</v>
+        <v>0.2620914919783885</v>
       </c>
       <c r="H15">
-        <v>0.7107564755483224</v>
+        <v>0.2453000269554408</v>
       </c>
       <c r="I15">
-        <v>0.752971219432407</v>
+        <v>0.2687930584144524</v>
       </c>
       <c r="J15">
-        <v>0.05486231235155969</v>
+        <v>0.09911374558829777</v>
       </c>
       <c r="K15">
-        <v>0.4693119108024746</v>
+        <v>1.481927770737087</v>
       </c>
       <c r="L15">
-        <v>0.5618396201183771</v>
+        <v>0.7001644929449355</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.53718574312623</v>
+        <v>1.018097163594817</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7253942098307675</v>
+        <v>1.796793373338801</v>
       </c>
       <c r="C16">
-        <v>0.2300855823399708</v>
+        <v>0.1078227168724588</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2726214032739165</v>
+        <v>0.1921394041705256</v>
       </c>
       <c r="F16">
-        <v>1.797914349124071</v>
+        <v>1.106595461752136</v>
       </c>
       <c r="G16">
-        <v>0.5728146587771974</v>
+        <v>0.2610146233434634</v>
       </c>
       <c r="H16">
-        <v>0.7144776758801967</v>
+        <v>0.2486646067514542</v>
       </c>
       <c r="I16">
-        <v>0.7579048978978307</v>
+        <v>0.2735529649075445</v>
       </c>
       <c r="J16">
-        <v>0.05335486111802368</v>
+        <v>0.09455798528568948</v>
       </c>
       <c r="K16">
-        <v>0.4407205030412626</v>
+        <v>1.391888572035327</v>
       </c>
       <c r="L16">
-        <v>0.5518101282824119</v>
+        <v>0.659596248726416</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.551694524836165</v>
+        <v>1.022638245605762</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7029055520346219</v>
+        <v>1.722702304817773</v>
       </c>
       <c r="C17">
-        <v>0.2305016539628575</v>
+        <v>0.108515203552912</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.27170222266313</v>
+        <v>0.1867628200248177</v>
       </c>
       <c r="F17">
-        <v>1.796862582296754</v>
+        <v>1.08331619459527</v>
       </c>
       <c r="G17">
-        <v>0.5748990650962824</v>
+        <v>0.2606195395576947</v>
       </c>
       <c r="H17">
-        <v>0.7168374142684542</v>
+        <v>0.2508820200351352</v>
       </c>
       <c r="I17">
-        <v>0.7610332650064997</v>
+        <v>0.2766996780851443</v>
       </c>
       <c r="J17">
-        <v>0.05242770535426899</v>
+        <v>0.09176436420908374</v>
       </c>
       <c r="K17">
-        <v>0.4231551561044569</v>
+        <v>1.3366955812497</v>
       </c>
       <c r="L17">
-        <v>0.5457052242169169</v>
+        <v>0.6348367462964575</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.560966275531086</v>
+        <v>1.026306076381843</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6899711835039</v>
+        <v>1.680120873458861</v>
       </c>
       <c r="C18">
-        <v>0.23074546531927</v>
+        <v>0.1089208544704476</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2711833897787201</v>
+        <v>0.1836898830204063</v>
       </c>
       <c r="F18">
-        <v>1.796346483575192</v>
+        <v>1.070130154716452</v>
       </c>
       <c r="G18">
-        <v>0.5761347079369017</v>
+        <v>0.2604867447922032</v>
       </c>
       <c r="H18">
-        <v>0.7182229463798109</v>
+        <v>0.2522124130810894</v>
       </c>
       <c r="I18">
-        <v>0.762869996916983</v>
+        <v>0.2785906954828654</v>
       </c>
       <c r="J18">
-        <v>0.05189356367232278</v>
+        <v>0.09015786420912519</v>
       </c>
       <c r="K18">
-        <v>0.4130429149853114</v>
+        <v>1.30496303480362</v>
       </c>
       <c r="L18">
-        <v>0.5422115300446961</v>
+        <v>0.6206403561256622</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.566435494063228</v>
+        <v>1.028730348691084</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6855919467358831</v>
+        <v>1.665708953354283</v>
       </c>
       <c r="C19">
-        <v>0.2308287889836471</v>
+        <v>0.1090594578355955</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.271009417045228</v>
+        <v>0.182652728045106</v>
       </c>
       <c r="F19">
-        <v>1.796187008516881</v>
+        <v>1.065699892536216</v>
       </c>
       <c r="G19">
-        <v>0.5765593849042077</v>
+        <v>0.2604577128830456</v>
       </c>
       <c r="H19">
-        <v>0.7186969207634561</v>
+        <v>0.2526721805704781</v>
       </c>
       <c r="I19">
-        <v>0.7634983022721542</v>
+        <v>0.2792446892989098</v>
       </c>
       <c r="J19">
-        <v>0.0517125646170129</v>
+        <v>0.08961397418033101</v>
       </c>
       <c r="K19">
-        <v>0.4096175399323556</v>
+        <v>1.294220909638454</v>
       </c>
       <c r="L19">
-        <v>0.5410316716993009</v>
+        <v>0.6158411485920823</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.568310694388288</v>
+        <v>1.029604321838903</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7052994621531354</v>
+        <v>1.730585836603808</v>
       </c>
       <c r="C20">
-        <v>0.2304568970958272</v>
+        <v>0.1084407250381254</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2717990515910031</v>
+        <v>0.187333129333048</v>
       </c>
       <c r="F20">
-        <v>1.796965350739669</v>
+        <v>1.085773084772796</v>
       </c>
       <c r="G20">
-        <v>0.5746733728152762</v>
+        <v>0.2606517523693981</v>
       </c>
       <c r="H20">
-        <v>0.7165832902002407</v>
+        <v>0.2506402505813909</v>
       </c>
       <c r="I20">
-        <v>0.760696376468033</v>
+        <v>0.2763562618432402</v>
       </c>
       <c r="J20">
-        <v>0.05252649253451835</v>
+        <v>0.09206171446679434</v>
       </c>
       <c r="K20">
-        <v>0.4250259662146334</v>
+        <v>1.342569560636178</v>
       </c>
       <c r="L20">
-        <v>0.5463532734734002</v>
+        <v>0.6374677675209171</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.559965169410134</v>
+        <v>1.025882855263461</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7715179132321168</v>
+        <v>1.948996204659267</v>
       </c>
       <c r="C21">
-        <v>0.2292610733113136</v>
+        <v>0.1064501180895796</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2745696838275862</v>
+        <v>0.2032970045968625</v>
       </c>
       <c r="F21">
-        <v>1.800641509840233</v>
+        <v>1.155698699611818</v>
       </c>
       <c r="G21">
-        <v>0.5687758208844969</v>
+        <v>0.2624542316294125</v>
       </c>
       <c r="H21">
-        <v>0.7098195005554473</v>
+        <v>0.2444799051443241</v>
       </c>
       <c r="I21">
-        <v>0.7517288886301721</v>
+        <v>0.2676360441404384</v>
       </c>
       <c r="J21">
-        <v>0.05525076195937118</v>
+        <v>0.1002904219738383</v>
       </c>
       <c r="K21">
-        <v>0.4766855945414363</v>
+        <v>1.505189852398672</v>
       </c>
       <c r="L21">
-        <v>0.564443757867366</v>
+        <v>0.7106798875310716</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.533554600457393</v>
+        <v>1.017205367249758</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8147933286037983</v>
+        <v>2.092131165476189</v>
       </c>
       <c r="C22">
-        <v>0.228519409610616</v>
+        <v>0.1052159030807545</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.276467658860156</v>
+        <v>0.2139196689517604</v>
       </c>
       <c r="F22">
-        <v>1.803833695753042</v>
+        <v>1.203366428502562</v>
       </c>
       <c r="G22">
-        <v>0.5652490789504725</v>
+        <v>0.26454140268212</v>
       </c>
       <c r="H22">
-        <v>0.7056504953312128</v>
+        <v>0.2409730364169604</v>
       </c>
       <c r="I22">
-        <v>0.7462010071032488</v>
+        <v>0.2627066093870916</v>
       </c>
       <c r="J22">
-        <v>0.05702331120844661</v>
+        <v>0.1056737970953705</v>
       </c>
       <c r="K22">
-        <v>0.5103620171088039</v>
+        <v>1.611649592742708</v>
       </c>
       <c r="L22">
-        <v>0.576422396373971</v>
+        <v>0.758976554634728</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.517508374364766</v>
+        <v>1.014542258778022</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7916969491094505</v>
+        <v>2.015696995228382</v>
       </c>
       <c r="C23">
-        <v>0.2289116093416581</v>
+        <v>0.1058684529728495</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2754467213474072</v>
+        <v>0.2082320539627247</v>
       </c>
       <c r="F23">
-        <v>1.802057794739298</v>
+        <v>1.177737505683282</v>
       </c>
       <c r="G23">
-        <v>0.5671013674927252</v>
+        <v>0.2633408349761623</v>
       </c>
       <c r="H23">
-        <v>0.7078525693966355</v>
+        <v>0.2427957213708538</v>
       </c>
       <c r="I23">
-        <v>0.7491208798883413</v>
+        <v>0.2652647318328825</v>
       </c>
       <c r="J23">
-        <v>0.05607800277320507</v>
+        <v>0.1027999593415672</v>
       </c>
       <c r="K23">
-        <v>0.4923963959838318</v>
+        <v>1.55481059526096</v>
       </c>
       <c r="L23">
-        <v>0.5700150448643342</v>
+        <v>0.7331561306229162</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.525961391244948</v>
+        <v>1.01567800740807</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7042171919457019</v>
+        <v>1.727021647660706</v>
       </c>
       <c r="C24">
-        <v>0.2304771173248028</v>
+        <v>0.1084743733312123</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2717552452733116</v>
+        <v>0.1870752361824515</v>
       </c>
       <c r="F24">
-        <v>1.796918613203758</v>
+        <v>1.084661711167044</v>
       </c>
       <c r="G24">
-        <v>0.5747752921453895</v>
+        <v>0.2606368958359013</v>
       </c>
       <c r="H24">
-        <v>0.7166980897076414</v>
+        <v>0.2507493817758117</v>
       </c>
       <c r="I24">
-        <v>0.7608485648117522</v>
+        <v>0.2765112656478337</v>
       </c>
       <c r="J24">
-        <v>0.05248183429780795</v>
+        <v>0.09192728372078562</v>
       </c>
       <c r="K24">
-        <v>0.4241802155493133</v>
+        <v>1.339913939465845</v>
       </c>
       <c r="L24">
-        <v>0.5460602402444721</v>
+        <v>0.6362781644632918</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.5604173372476</v>
+        <v>1.026073212787026</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6098793810860457</v>
+        <v>1.416884237217289</v>
       </c>
       <c r="C25">
-        <v>0.2323378486123531</v>
+        <v>0.1115656491946737</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2681504923423397</v>
+        <v>0.1649929018791525</v>
       </c>
       <c r="F25">
-        <v>1.794772920484803</v>
+        <v>0.9919676768297876</v>
       </c>
       <c r="G25">
-        <v>0.5844575410406492</v>
+        <v>0.2612960563481792</v>
       </c>
       <c r="H25">
-        <v>0.7273205125535398</v>
+        <v>0.2614161078163733</v>
       </c>
       <c r="I25">
-        <v>0.7749277967386128</v>
+        <v>0.2917190148938396</v>
       </c>
       <c r="J25">
-        <v>0.04856977431451526</v>
+        <v>0.08021008086689108</v>
       </c>
       <c r="K25">
-        <v>0.3502521017344407</v>
+        <v>1.108578516831983</v>
       </c>
       <c r="L25">
-        <v>0.520898333285345</v>
+        <v>0.533459151369982</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.602796485132856</v>
+        <v>1.049208927208213</v>
       </c>
     </row>
   </sheetData>
